--- a/test/compatibility/test_data/text-functions.xlsx
+++ b/test/compatibility/test_data/text-functions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuba/HotNoBackup/hyperformula/test/compatibility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuba/HotNoBackup/hyperformula/test/compatibility/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A76FA-D3BE-3844-9AF0-6EA90500363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0A91E-4BE1-994B-A711-8574E4A7AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{1A60D665-22CB-654D-B618-3D53148B6D33}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
